--- a/loaded_influencer_data/ugcjessielee/ugcjessielee_video.xlsx
+++ b/loaded_influencer_data/ugcjessielee/ugcjessielee_video.xlsx
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcjessielee/video/7285498109168258322</t>
         </is>
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcjessielee/photo/7285316812361764103</t>
         </is>
@@ -568,7 +568,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -576,9 +576,13 @@
       <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Anybody else have this struggle</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>12.52302025782689</v>
+        <v>12.33885819521179</v>
       </c>
       <c r="I3" t="n">
         <v>11.78637200736648</v>
@@ -587,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7366482504604052</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="L3" t="n">
         <v>0.3683241252302026</v>
@@ -602,7 +606,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcjessielee/video/7284970283247668498</t>
         </is>
@@ -653,7 +657,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcjessielee/video/7284125658270289159</t>
         </is>
@@ -704,7 +708,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcjessielee/video/7284089713961602322</t>
         </is>
